--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3778896.142646227</v>
+        <v>3774591.019649157</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>150.1450882057764</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>158.9209832102722</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>104.881441273314</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>186.6977984376697</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>289.5813878748685</v>
+        <v>187.1195264785642</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760051</v>
+        <v>92.85788772760071</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425926</v>
+        <v>23.94240680425958</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074804</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>158.609742700983</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>60.63950949431953</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>79.56811415386014</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304058</v>
+        <v>19.86486348319653</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>226.4341290878648</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>278.9011456391784</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>20.27697994470837</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>117.7096866748383</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>252.3685669536095</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>106.9178383776777</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>111.306220275312</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>37.41782514684017</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>122.2059282187645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>108.2950343703266</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.23631843387898</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>21.44532649588058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>520.5803211678661</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>520.5803211678661</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="U2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="V2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.5803211678661</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488.3541728409039</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>313.9011435597769</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>313.9011435597769</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>313.9011435597769</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>313.9011435597769</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V3" t="n">
-        <v>488.3541728409039</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W3" t="n">
-        <v>488.3541728409039</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X3" t="n">
-        <v>488.3541728409039</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y3" t="n">
-        <v>488.3541728409039</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>786.0715542610642</v>
+        <v>1097.311946941893</v>
       </c>
       <c r="C5" t="n">
-        <v>786.0715542610642</v>
+        <v>728.3494300014811</v>
       </c>
       <c r="D5" t="n">
-        <v>427.8058556543137</v>
+        <v>728.3494300014811</v>
       </c>
       <c r="E5" t="n">
-        <v>427.8058556543137</v>
+        <v>728.3494300014811</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8603549051102</v>
+        <v>317.3635252118735</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675749</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>111.6705539017207</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746978</v>
+        <v>277.9807166746957</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030762</v>
+        <v>521.2049416030729</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709175</v>
+        <v>823.5081935709135</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.316836582746</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079232</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332749</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837875</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.71856654065</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300998</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726300998</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.810726300998</v>
+        <v>1450.080602212007</v>
       </c>
       <c r="V5" t="n">
-        <v>1562.810726300998</v>
+        <v>1450.080602212007</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.810726300998</v>
+        <v>1097.311946941893</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.810726300998</v>
+        <v>1097.311946941893</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.671394325186</v>
+        <v>1097.311946941893</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>844.5579303251358</v>
+        <v>800.7994951237464</v>
       </c>
       <c r="C6" t="n">
-        <v>670.1049010440088</v>
+        <v>626.3464658426194</v>
       </c>
       <c r="D6" t="n">
-        <v>521.1704913827575</v>
+        <v>477.4120561813682</v>
       </c>
       <c r="E6" t="n">
-        <v>361.933036377302</v>
+        <v>318.1746011759127</v>
       </c>
       <c r="F6" t="n">
-        <v>215.3984784041869</v>
+        <v>171.6400432027977</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814672</v>
+        <v>34.55805631675749</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814672</v>
+        <v>34.55805631675749</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675749</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787516</v>
+        <v>61.66788464787477</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>186.1577239806051</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189972</v>
+        <v>399.8722171189958</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223492</v>
+        <v>668.6238185223469</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>958.8971200352439</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228314</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639502</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703771</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="T6" t="n">
-        <v>1240.888409389647</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="U6" t="n">
-        <v>1012.773267345204</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="V6" t="n">
-        <v>1012.773267345204</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="W6" t="n">
-        <v>1012.773267345204</v>
+        <v>1384.626631114301</v>
       </c>
       <c r="X6" t="n">
-        <v>1012.773267345204</v>
+        <v>1176.775130908768</v>
       </c>
       <c r="Y6" t="n">
-        <v>1012.773267345204</v>
+        <v>969.0148321438144</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="C7" t="n">
-        <v>65.10546964306124</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="D7" t="n">
-        <v>65.10546964306124</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306124</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306124</v>
+        <v>222.9291020878871</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306124</v>
+        <v>54.62357498665298</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306124</v>
+        <v>54.62357498665298</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306124</v>
+        <v>54.62357498665298</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675749</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574674</v>
+        <v>64.24066662574631</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>132.1299861584104</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347967</v>
+        <v>206.9680378347956</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819536</v>
+        <v>287.8841338195346</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934708</v>
+        <v>342.3101561934691</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857995</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857995</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857995</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857995</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="T7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="U7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="V7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="W7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="X7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.4773021217079</v>
+        <v>369.8190495857975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1676.567500128105</v>
+        <v>1018.254896603642</v>
       </c>
       <c r="C8" t="n">
-        <v>1307.604983187693</v>
+        <v>649.2923796632306</v>
       </c>
       <c r="D8" t="n">
-        <v>949.3392845809428</v>
+        <v>291.0266810564801</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>55.35983779428177</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="X8" t="n">
-        <v>1676.567500128105</v>
+        <v>1794.994068643576</v>
       </c>
       <c r="Y8" t="n">
-        <v>1676.567500128105</v>
+        <v>1404.854736667764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.0707711116521</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>671.6177418305251</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907033</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1476.374965065454</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1476.374965065454</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1222.137608337253</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1014.28610813172</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>1014.28610813172</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S10" t="n">
-        <v>298.2869409356784</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T10" t="n">
-        <v>298.2869409356784</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>412.2915304974914</v>
       </c>
     </row>
     <row r="11">
@@ -5023,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859342</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2418223735984</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P18" t="n">
-        <v>2354.274259167293</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900017</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>94.56320294380271</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2323.522752046155</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2103.921287069096</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1814.846060413294</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1560.161572207407</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
         <v>235.5284942057738</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7077,19 +7077,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7268,13 +7268,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.3777707160738</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4415877881669</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2418.441549808666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.58671546357</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2015.985250486511</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1726.910023830708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1472.225535624822</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1182.808365587861</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8188146898436</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0262355463135</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7551,13 +7551,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,13 +7736,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207406</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>35.12774237125717</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>111.1976478713722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>58.82035778288011</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>38.13892827624255</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.13892827624271</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F43" t="n">
-        <v>45.44677382459309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>230.6923168279474</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>640787.2138850626</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>640787.2138850626</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176759</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253113</v>
+        <v>270592.3620253103</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231937</v>
+        <v>115410.0540231961</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742646</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854434</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881956</v>
+        <v>62913.63765881919</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197508</v>
+        <v>27875.25362197563</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.633259104165647e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263469</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26441,13 +26441,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.583971892</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26459,7 +26459,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936812</v>
+        <v>76435.73471936799</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.542148913</v>
+        <v>-126363.5421489121</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466501</v>
+        <v>246883.2059466511</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497124</v>
+        <v>425703.59964971</v>
       </c>
       <c r="E6" t="n">
-        <v>68355.61332769158</v>
+        <v>68008.2340733351</v>
       </c>
       <c r="F6" t="n">
-        <v>669798.8209019566</v>
+        <v>669451.4416475997</v>
       </c>
       <c r="G6" t="n">
-        <v>669798.8209019569</v>
+        <v>669451.4416476001</v>
       </c>
       <c r="H6" t="n">
-        <v>669798.8209019566</v>
+        <v>669451.4416475996</v>
       </c>
       <c r="I6" t="n">
-        <v>669798.8209019566</v>
+        <v>669451.4416475998</v>
       </c>
       <c r="J6" t="n">
-        <v>620733.8761734125</v>
+        <v>620386.4969190554</v>
       </c>
       <c r="K6" t="n">
-        <v>606885.1832431371</v>
+        <v>606537.8039887805</v>
       </c>
       <c r="L6" t="n">
-        <v>641923.5672799817</v>
+        <v>641576.1880256239</v>
       </c>
       <c r="M6" t="n">
-        <v>512652.4403503587</v>
+        <v>512305.0610960018</v>
       </c>
       <c r="N6" t="n">
-        <v>669798.8209019565</v>
+        <v>669451.4416476</v>
       </c>
       <c r="O6" t="n">
-        <v>669798.8209019568</v>
+        <v>669451.4416475998</v>
       </c>
       <c r="P6" t="n">
-        <v>669798.8209019568</v>
+        <v>669451.4416475997</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950609</v>
+        <v>758.8996292950596</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594704</v>
+        <v>431.9757039594687</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821561</v>
+        <v>210.4296883821554</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262323</v>
+        <v>94.81103524262517</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931503</v>
+        <v>244.450116793149</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666952</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.450116793149</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666951</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931503</v>
+        <v>244.450116793149</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666952</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>8.630724984276668</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988714</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>92.24827735475813</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>61.65174237655339</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>46.10278871175558</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>199.921697069394</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>122.6704968591808</v>
+        <v>225.1323582554852</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372557</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937529</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074822</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>34.97546939645974</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>191.0554736666001</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>87.6787069447677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.3770757098442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589165</v>
+        <v>36.91115760589184</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>155.4962409843969</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>90.82995503929061</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>117.2980339485908</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>108.1108872932302</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>33.86649086210718</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>111.6668149744171</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.541573880207059e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.050852781085664</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429357</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428052</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286697</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>388.0799144520259</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511772</v>
+        <v>481.4474502511764</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968086</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610692</v>
+        <v>544.3712888610683</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191485</v>
+        <v>514.0343715191477</v>
       </c>
       <c r="P5" t="n">
-        <v>438.716443486096</v>
+        <v>438.7164434860953</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.4577782634648</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098725</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>69.52130774898966</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.3551080492025</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.2440682224868531</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030883</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403511</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506248</v>
+        <v>56.20152915062471</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475932</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316624</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.427605172188</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658074</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468662</v>
+        <v>424.5470671468655</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>388.3776244374444</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872482</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547492</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>30.32018801947713</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378874</v>
+        <v>6.579516597378864</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.107391456975716</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>41.15475366734521</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635553</v>
+        <v>96.75348224635538</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260796</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162526</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399133</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528483</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275343</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650514995</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.593844023554</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>61.53307486054695</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391194</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830795</v>
+        <v>5.847259438830785</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07464586517656333</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503486</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.7670002884146</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>100.2764607028594</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>77.89141170198337</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070453</v>
       </c>
       <c r="L5" t="n">
-        <v>245.68103528119</v>
+        <v>245.6810352811892</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695359</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644782</v>
+        <v>314.9582252644773</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974618</v>
+        <v>283.936160097461</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.4834477308257</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>107.1520883890153</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.3836649809268</v>
+        <v>27.38366498092654</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573034</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>215.8732253923138</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437898</v>
+        <v>271.4662640437891</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>293.2053550635322</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799929999</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729179</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872807</v>
+        <v>68.38629016872773</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>29.98243465554427</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501461</v>
+        <v>68.57507023501427</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230858</v>
+        <v>75.59399159230824</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761545</v>
+        <v>81.73343028761511</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756918</v>
+        <v>54.97578017569148</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235214</v>
+        <v>27.78676100235185</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059041</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>163.785226202393</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
